--- a/biology/Zoologie/Hermacha/Hermacha.xlsx
+++ b/biology/Zoologie/Hermacha/Hermacha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hermacha est un genre d'araignées mygalomorphes de la famille des Entypesidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hermacha est un genre d'araignées mygalomorphes de la famille des Entypesidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique australe et en Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique australe et en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24, 05/02/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24, 05/02/2023) :
 Hermacha anomala (Bertkau, 1880)
 Hermacha brevicauda Purcell, 1903
 Hermacha caudata Simon, 1889
@@ -589,10 +605,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Simon en 1889 dans les Aviculariidae. Il est placé dans les Nemesiidae par Raven en 1985[2] puis dans les Entypesidae par Opatova, Hamilton, Hedin, Montes de Oca, Král et Bond en 2020[3].
-Damarchodes[4] a été placé en synonymie par Raven en 1985[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Simon en 1889 dans les Aviculariidae. Il est placé dans les Nemesiidae par Raven en 1985 puis dans les Entypesidae par Opatova, Hamilton, Hedin, Montes de Oca, Král et Bond en 2020.
+Damarchodes a été placé en synonymie par Raven en 1985.
 </t>
         </is>
       </c>
@@ -621,7 +639,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1889 : « Descriptions d'espèces africaines nouvelles de la famille des Aviculariidae. » Actes de la Société Linnéenne de Bordeaux, vol. 42, p. 405-415 (texte intégral).</t>
         </is>
